--- a/Docs/Fusion Loads.xlsx
+++ b/Docs/Fusion Loads.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\github\Pequot-Museum\Docs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1DE2D579-FC1D-4B4D-8185-D97ACBF33879}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{95757CD9-25CB-4949-83E4-634316D54525}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-28920" yWindow="-1665" windowWidth="29040" windowHeight="15840" xr2:uid="{47C7FE00-9CE1-4A8B-BE07-8BB3F76F9456}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="75" uniqueCount="30">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="93" uniqueCount="38">
   <si>
     <t>System</t>
   </si>
@@ -60,9 +60,6 @@
     <t>yes</t>
   </si>
   <si>
-    <t>no</t>
-  </si>
-  <si>
     <t>World of Ice</t>
   </si>
   <si>
@@ -117,13 +114,40 @@
     <t>10.140.5.24</t>
   </si>
   <si>
-    <t>*needs RM</t>
-  </si>
-  <si>
     <t>Notes</t>
   </si>
   <si>
     <t>Fusion Loaded</t>
+  </si>
+  <si>
+    <t>Processor Type</t>
+  </si>
+  <si>
+    <t>AP4</t>
+  </si>
+  <si>
+    <t>CP4</t>
+  </si>
+  <si>
+    <t>AP3</t>
+  </si>
+  <si>
+    <t>Tested</t>
+  </si>
+  <si>
+    <t>presets + zone spot check</t>
+  </si>
+  <si>
+    <t>fed recognition entrance not responding, war theater seats not responding</t>
+  </si>
+  <si>
+    <t>no zone names</t>
+  </si>
+  <si>
+    <t>presets</t>
+  </si>
+  <si>
+    <t>more presets + rediscover</t>
   </si>
 </sst>
 </file>
@@ -171,7 +195,7 @@
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="3">
+  <dxfs count="2">
     <dxf>
       <font>
         <color rgb="FF006100"/>
@@ -192,16 +216,6 @@
         </patternFill>
       </fill>
     </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
   </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
@@ -216,15 +230,17 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{F01C46A4-D1F2-466F-921C-EA064C70ADF5}" name="Table1" displayName="Table1" ref="A1:G11" totalsRowShown="0">
-  <autoFilter ref="A1:G11" xr:uid="{F01C46A4-D1F2-466F-921C-EA064C70ADF5}"/>
-  <tableColumns count="7">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{F01C46A4-D1F2-466F-921C-EA064C70ADF5}" name="Table1" displayName="Table1" ref="A1:I11" totalsRowShown="0">
+  <autoFilter ref="A1:I11" xr:uid="{F01C46A4-D1F2-466F-921C-EA064C70ADF5}"/>
+  <tableColumns count="9">
     <tableColumn id="1" xr3:uid="{BD310207-43D2-4CB2-A2E8-0DB41FF635ED}" name="System"/>
+    <tableColumn id="8" xr3:uid="{F7809019-6BB1-450A-B0DF-C892E5854648}" name="Processor Type"/>
     <tableColumn id="2" xr3:uid="{859D3B6C-1E9C-4074-9A5B-AF8A35873DDD}" name="IP"/>
     <tableColumn id="3" xr3:uid="{762670F9-0B03-49AD-8B97-EAB3D2DE800C}" name="Simpl Updated"/>
     <tableColumn id="4" xr3:uid="{40B0F06B-EB60-4152-B442-872AADD51068}" name="Fusion Loaded"/>
     <tableColumn id="5" xr3:uid="{754F6555-753E-4156-807B-66A9D5BF08F1}" name="Configs Loaded"/>
     <tableColumn id="6" xr3:uid="{F8BFA18F-DE69-4826-A6EC-EAAB71661446}" name="Fusion Imported"/>
+    <tableColumn id="9" xr3:uid="{E5FCE755-95AD-4495-9F0D-AB817A8E6665}" name="Tested"/>
     <tableColumn id="7" xr3:uid="{144AF251-9394-4EF4-BF1B-E62D0453DAB9}" name="Notes"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium9" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
@@ -528,56 +544,64 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9B2E8DB9-6234-4478-B106-9C12C0D7A4D4}">
-  <dimension ref="A1:G11"/>
+  <dimension ref="A1:I11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D12" sqref="D12"/>
+      <selection activeCell="H2" sqref="H2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="19.33203125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="20.109375" customWidth="1"/>
-    <col min="3" max="3" width="15.5546875" customWidth="1"/>
-    <col min="4" max="4" width="16.44140625" customWidth="1"/>
-    <col min="5" max="5" width="16" customWidth="1"/>
-    <col min="6" max="6" width="17.109375" customWidth="1"/>
-    <col min="7" max="7" width="10.77734375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="19.33203125" customWidth="1"/>
+    <col min="3" max="3" width="20.109375" customWidth="1"/>
+    <col min="4" max="4" width="15.5546875" customWidth="1"/>
+    <col min="5" max="5" width="16.44140625" customWidth="1"/>
+    <col min="6" max="6" width="16" customWidth="1"/>
+    <col min="7" max="7" width="17.109375" customWidth="1"/>
+    <col min="8" max="8" width="23.21875" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="36.5546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
       <c r="B1" t="s">
+        <v>28</v>
+      </c>
+      <c r="C1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" t="s">
+      <c r="D1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" t="s">
-        <v>29</v>
-      </c>
       <c r="E1" t="s">
+        <v>27</v>
+      </c>
+      <c r="F1" t="s">
         <v>3</v>
       </c>
-      <c r="F1" t="s">
+      <c r="G1" t="s">
         <v>4</v>
       </c>
-      <c r="G1" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H1" t="s">
+        <v>32</v>
+      </c>
+      <c r="I1" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>5</v>
       </c>
       <c r="B2" t="s">
+        <v>29</v>
+      </c>
+      <c r="C2" t="s">
         <v>6</v>
       </c>
-      <c r="C2" t="s">
-        <v>7</v>
-      </c>
       <c r="D2" t="s">
         <v>7</v>
       </c>
@@ -585,221 +609,269 @@
         <v>7</v>
       </c>
       <c r="F2" t="s">
+        <v>7</v>
+      </c>
+      <c r="G2" t="s">
+        <v>7</v>
+      </c>
+      <c r="H2" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A3" t="s">
+      <c r="B3" t="s">
+        <v>29</v>
+      </c>
+      <c r="C3" t="s">
         <v>9</v>
       </c>
-      <c r="B3" t="s">
+      <c r="D3" t="s">
+        <v>7</v>
+      </c>
+      <c r="E3" t="s">
+        <v>7</v>
+      </c>
+      <c r="F3" t="s">
+        <v>7</v>
+      </c>
+      <c r="G3" t="s">
+        <v>7</v>
+      </c>
+      <c r="H3" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A4" t="s">
         <v>10</v>
       </c>
-      <c r="C3" t="s">
-        <v>7</v>
-      </c>
-      <c r="D3" t="s">
-        <v>7</v>
-      </c>
-      <c r="E3" t="s">
-        <v>7</v>
-      </c>
-      <c r="F3" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A4" t="s">
+      <c r="B4" t="s">
+        <v>29</v>
+      </c>
+      <c r="C4" t="s">
         <v>11</v>
       </c>
-      <c r="B4" t="s">
+      <c r="D4" t="s">
+        <v>7</v>
+      </c>
+      <c r="E4" t="s">
+        <v>7</v>
+      </c>
+      <c r="F4" t="s">
+        <v>7</v>
+      </c>
+      <c r="G4" t="s">
+        <v>7</v>
+      </c>
+      <c r="H4" t="s">
+        <v>33</v>
+      </c>
+      <c r="I4" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A5" t="s">
         <v>12</v>
       </c>
-      <c r="C4" t="s">
-        <v>7</v>
-      </c>
-      <c r="D4" t="s">
-        <v>7</v>
-      </c>
-      <c r="E4" t="s">
-        <v>8</v>
-      </c>
-      <c r="F4" t="s">
-        <v>8</v>
-      </c>
-      <c r="G4" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A5" t="s">
+      <c r="B5" t="s">
+        <v>29</v>
+      </c>
+      <c r="C5" t="s">
         <v>13</v>
       </c>
-      <c r="B5" t="s">
+      <c r="D5" t="s">
+        <v>7</v>
+      </c>
+      <c r="E5" t="s">
+        <v>7</v>
+      </c>
+      <c r="F5" t="s">
+        <v>7</v>
+      </c>
+      <c r="G5" t="s">
+        <v>7</v>
+      </c>
+      <c r="H5" t="s">
+        <v>33</v>
+      </c>
+      <c r="I5" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A6" t="s">
         <v>14</v>
       </c>
-      <c r="C5" t="s">
-        <v>7</v>
-      </c>
-      <c r="D5" t="s">
-        <v>7</v>
-      </c>
-      <c r="E5" t="s">
-        <v>8</v>
-      </c>
-      <c r="F5" t="s">
-        <v>8</v>
-      </c>
-      <c r="G5" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A6" t="s">
+      <c r="B6" t="s">
+        <v>29</v>
+      </c>
+      <c r="C6" t="s">
         <v>15</v>
       </c>
-      <c r="B6" t="s">
+      <c r="D6" t="s">
+        <v>7</v>
+      </c>
+      <c r="E6" t="s">
+        <v>7</v>
+      </c>
+      <c r="F6" t="s">
+        <v>7</v>
+      </c>
+      <c r="G6" t="s">
+        <v>7</v>
+      </c>
+      <c r="H6" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A7" t="s">
         <v>16</v>
       </c>
-      <c r="C6" t="s">
-        <v>7</v>
-      </c>
-      <c r="D6" t="s">
-        <v>7</v>
-      </c>
-      <c r="E6" t="s">
-        <v>8</v>
-      </c>
-      <c r="F6" t="s">
-        <v>8</v>
-      </c>
-      <c r="G6" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A7" t="s">
+      <c r="B7" t="s">
+        <v>29</v>
+      </c>
+      <c r="C7" t="s">
         <v>17</v>
       </c>
-      <c r="B7" t="s">
+      <c r="D7" t="s">
+        <v>7</v>
+      </c>
+      <c r="E7" t="s">
+        <v>7</v>
+      </c>
+      <c r="F7" t="s">
+        <v>7</v>
+      </c>
+      <c r="G7" t="s">
+        <v>7</v>
+      </c>
+      <c r="H7" t="s">
+        <v>33</v>
+      </c>
+      <c r="I7" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A8" t="s">
         <v>18</v>
       </c>
-      <c r="C7" t="s">
-        <v>7</v>
-      </c>
-      <c r="D7" t="s">
-        <v>7</v>
-      </c>
-      <c r="E7" t="s">
-        <v>8</v>
-      </c>
-      <c r="F7" t="s">
-        <v>8</v>
-      </c>
-      <c r="G7" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A8" t="s">
+      <c r="B8" t="s">
+        <v>29</v>
+      </c>
+      <c r="C8" t="s">
         <v>19</v>
       </c>
-      <c r="B8" t="s">
+      <c r="D8" t="s">
+        <v>7</v>
+      </c>
+      <c r="E8" t="s">
+        <v>7</v>
+      </c>
+      <c r="F8" t="s">
+        <v>7</v>
+      </c>
+      <c r="G8" t="s">
+        <v>7</v>
+      </c>
+      <c r="H8" t="s">
+        <v>36</v>
+      </c>
+      <c r="I8" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A9" t="s">
         <v>20</v>
       </c>
-      <c r="C8" t="s">
-        <v>7</v>
-      </c>
-      <c r="D8" t="s">
-        <v>7</v>
-      </c>
-      <c r="E8" t="s">
-        <v>8</v>
-      </c>
-      <c r="F8" t="s">
-        <v>8</v>
-      </c>
-      <c r="G8" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A9" t="s">
+      <c r="B9" t="s">
+        <v>30</v>
+      </c>
+      <c r="C9" t="s">
         <v>21</v>
       </c>
-      <c r="B9" t="s">
+      <c r="D9" t="s">
+        <v>7</v>
+      </c>
+      <c r="E9" t="s">
+        <v>7</v>
+      </c>
+      <c r="F9" t="s">
+        <v>7</v>
+      </c>
+      <c r="G9" t="s">
+        <v>7</v>
+      </c>
+      <c r="H9" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A10" t="s">
         <v>22</v>
       </c>
-      <c r="C9" t="s">
-        <v>7</v>
-      </c>
-      <c r="D9" t="s">
-        <v>7</v>
-      </c>
-      <c r="E9" t="s">
-        <v>8</v>
-      </c>
-      <c r="F9" t="s">
-        <v>8</v>
-      </c>
-      <c r="G9" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A10" t="s">
+      <c r="B10" t="s">
+        <v>31</v>
+      </c>
+      <c r="C10" t="s">
         <v>23</v>
       </c>
-      <c r="B10" t="s">
+      <c r="D10" t="s">
+        <v>7</v>
+      </c>
+      <c r="E10" t="s">
+        <v>7</v>
+      </c>
+      <c r="F10" t="s">
+        <v>7</v>
+      </c>
+      <c r="G10" t="s">
+        <v>7</v>
+      </c>
+      <c r="H10" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A11" t="s">
         <v>24</v>
       </c>
-      <c r="C10" t="s">
-        <v>7</v>
-      </c>
-      <c r="D10" t="s">
-        <v>7</v>
-      </c>
-      <c r="E10" t="s">
-        <v>8</v>
-      </c>
-      <c r="F10" t="s">
-        <v>8</v>
-      </c>
-      <c r="G10" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A11" t="s">
+      <c r="B11" t="s">
+        <v>29</v>
+      </c>
+      <c r="C11" t="s">
         <v>25</v>
       </c>
-      <c r="B11" t="s">
-        <v>26</v>
-      </c>
-      <c r="C11" t="s">
-        <v>7</v>
-      </c>
       <c r="D11" t="s">
         <v>7</v>
       </c>
       <c r="E11" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="F11" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="G11" t="s">
-        <v>27</v>
+        <v>7</v>
+      </c>
+      <c r="H11" t="s">
+        <v>33</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
-  <conditionalFormatting sqref="C2:F11">
+  <conditionalFormatting sqref="D2:H11">
+    <cfRule type="containsText" dxfId="1" priority="1" operator="containsText" text="no">
+      <formula>NOT(ISERROR(SEARCH("no",D2)))</formula>
+    </cfRule>
     <cfRule type="containsText" dxfId="0" priority="2" operator="containsText" text="yes">
-      <formula>NOT(ISERROR(SEARCH("yes",C2)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="1" priority="1" operator="containsText" text="no">
-      <formula>NOT(ISERROR(SEARCH("no",C2)))</formula>
+      <formula>NOT(ISERROR(SEARCH("yes",D2)))</formula>
     </cfRule>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
